--- a/Japtool Project Schedule Offshore.xlsx
+++ b/Japtool Project Schedule Offshore.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,15 +12,129 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$B$9:$M$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Master!$A$1:$AF$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$B$9:$O$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Master!$A$1:$AV$35</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">xuandtads@gmail.com: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>xuandtads@gmail.com: Cong viec dang thuc hien (dung nhu plan)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>xuandtads@gmail.com: task hoan thanh tien do 100%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>xuandtads@gmail.com: cong viec da bi over deadline</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>Update: 16/6/2015</t>
   </si>
@@ -118,26 +232,45 @@
     <t>19/6/2015</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Actual</t>
   </si>
   <si>
+    <t>Screen
+No</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Open
+      <t xml:space="preserve">Pending
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>⃝</t>
+      <t>★</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In Progress
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>△</t>
+    </r>
+  </si>
+  <si>
+    <t>Open
+◇</t>
   </si>
   <si>
     <r>
@@ -151,54 +284,30 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>©</t>
+      <t>○</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">In Progress
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>℗</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pending
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>∆</t>
-    </r>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>℗</t>
-  </si>
-  <si>
-    <t>∆</t>
+    <t>△</t>
+  </si>
+  <si>
+    <t>◇</t>
+  </si>
+  <si>
+    <t>Creator: xuandt2</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>★</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,16 +354,33 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -290,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -447,11 +573,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,24 +633,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -536,6 +659,48 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,6 +711,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -594,7 +762,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,7 +797,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -837,216 +1005,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AS32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="30.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="16" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="2" customWidth="1"/>
-    <col min="18" max="28" width="9.140625" style="2"/>
-    <col min="29" max="29" width="9.42578125" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="30.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" style="2" customWidth="1"/>
+    <col min="12" max="13" width="10.140625" style="2" customWidth="1"/>
+    <col min="14" max="15" width="9.85546875" style="2" customWidth="1"/>
+    <col min="16" max="45" width="3.5703125" style="2" customWidth="1"/>
+    <col min="46" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18">
+    <row r="1" spans="1:45" ht="18">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="18">
+    <row r="2" spans="1:45" ht="18">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="18">
+    <row r="3" spans="1:45" ht="18" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="36"/>
+      <c r="L3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="18">
+    </row>
+    <row r="4" spans="1:45" ht="18">
       <c r="A4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-    </row>
-    <row r="5" spans="1:29" ht="21" customHeight="1">
-      <c r="F5" s="3"/>
+      <c r="F4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:45" ht="21" customHeight="1">
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="7" spans="1:29" ht="24.75" customHeight="1">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="25" t="s">
+      <c r="J5" s="39"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="7" spans="1:45" ht="24.75" customHeight="1">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
-    </row>
-    <row r="8" spans="1:29" ht="22.5" customHeight="1">
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="21"/>
+    </row>
+    <row r="8" spans="1:45" ht="22.5" customHeight="1">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:29" ht="26.25" customHeight="1">
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:45" ht="26.25" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="J9" s="12" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="12" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M9" s="13"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="19"/>
-    </row>
-    <row r="10" spans="1:29" ht="26.25" customHeight="1">
+      <c r="N9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="29">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
+      <c r="AP9" s="27"/>
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="28"/>
+    </row>
+    <row r="10" spans="1:45" s="30" customFormat="1" ht="26.25" customHeight="1">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="22"/>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="N10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="31">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="31">
+        <v>18</v>
+      </c>
+      <c r="R10" s="31">
+        <v>19</v>
+      </c>
+      <c r="S10" s="31">
+        <v>20</v>
+      </c>
+      <c r="T10" s="31">
+        <v>21</v>
+      </c>
+      <c r="U10" s="31">
+        <v>22</v>
+      </c>
+      <c r="V10" s="31">
+        <v>23</v>
+      </c>
+      <c r="W10" s="31">
+        <v>24</v>
+      </c>
+      <c r="X10" s="31">
+        <v>25</v>
+      </c>
+      <c r="Y10" s="31">
+        <v>26</v>
+      </c>
+      <c r="Z10" s="31">
+        <v>27</v>
+      </c>
+      <c r="AA10" s="31">
+        <v>28</v>
+      </c>
+      <c r="AB10" s="31">
+        <v>29</v>
+      </c>
+      <c r="AC10" s="31">
+        <v>30</v>
+      </c>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="32"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="32"/>
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="33"/>
+    </row>
+    <row r="11" spans="1:45">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -1065,29 +1301,45 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+    </row>
+    <row r="12" spans="1:45">
       <c r="B12" s="5">
         <v>1</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="9"/>
+      <c r="F12" s="5"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -1104,24 +1356,40 @@
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+    </row>
+    <row r="13" spans="1:45">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1140,24 +1408,40 @@
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+    </row>
+    <row r="14" spans="1:45">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="5"/>
+      <c r="I14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="J14" s="9"/>
+      <c r="K14" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -1176,24 +1460,40 @@
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+    </row>
+    <row r="15" spans="1:45">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="5"/>
+      <c r="I15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -1212,24 +1512,40 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+    </row>
+    <row r="16" spans="1:45">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="5"/>
+      <c r="I16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="J16" s="9"/>
+      <c r="K16" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -1248,24 +1564,40 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
-    </row>
-    <row r="17" spans="2:29">
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
+    </row>
+    <row r="17" spans="2:45">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="5"/>
+      <c r="I17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="J17" s="9"/>
+      <c r="K17" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -1284,18 +1616,34 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
-    </row>
-    <row r="18" spans="2:29">
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+    </row>
+    <row r="18" spans="2:45">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -1314,33 +1662,49 @@
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
-    </row>
-    <row r="19" spans="2:29">
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+    </row>
+    <row r="19" spans="2:45">
       <c r="B19" s="5">
         <v>2</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="9" t="s">
+      <c r="F19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="9"/>
+      <c r="K19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="M19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -1357,24 +1721,40 @@
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
-    </row>
-    <row r="20" spans="2:29">
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+    </row>
+    <row r="20" spans="2:45">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="5"/>
+      <c r="I20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="34" t="s">
+        <v>42</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -1393,24 +1773,38 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
-    </row>
-    <row r="21" spans="2:29">
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
+    </row>
+    <row r="21" spans="2:45">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="5"/>
+      <c r="I21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -1429,24 +1823,38 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
-    </row>
-    <row r="22" spans="2:29">
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+    </row>
+    <row r="22" spans="2:45">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="5"/>
+      <c r="I22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -1465,24 +1873,38 @@
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
-    </row>
-    <row r="23" spans="2:29">
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+    </row>
+    <row r="23" spans="2:45">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="5"/>
+      <c r="I23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -1501,24 +1923,38 @@
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
-    </row>
-    <row r="24" spans="2:29">
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+    </row>
+    <row r="24" spans="2:45">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="5"/>
+      <c r="I24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -1537,18 +1973,34 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
-    </row>
-    <row r="25" spans="2:29">
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+    </row>
+    <row r="25" spans="2:45">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="9"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -1567,27 +2019,45 @@
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
-    </row>
-    <row r="26" spans="2:29">
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="5"/>
+    </row>
+    <row r="26" spans="2:45">
       <c r="B26" s="5">
         <v>3</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="9"/>
+      <c r="F26" s="5"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="9"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="M26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
@@ -1604,22 +2074,38 @@
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
-    </row>
-    <row r="27" spans="2:29">
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="5"/>
+    </row>
+    <row r="27" spans="2:45">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="5"/>
+      <c r="I27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="34"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -1638,22 +2124,38 @@
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
-    </row>
-    <row r="28" spans="2:29">
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="5"/>
+    </row>
+    <row r="28" spans="2:45">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="5"/>
+      <c r="I28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -1672,22 +2174,38 @@
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
-    </row>
-    <row r="29" spans="2:29">
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+    </row>
+    <row r="29" spans="2:45">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="5"/>
+      <c r="I29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="34"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -1706,22 +2224,38 @@
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
-    </row>
-    <row r="30" spans="2:29">
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+    </row>
+    <row r="30" spans="2:45">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="5"/>
+      <c r="I30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -1740,22 +2274,38 @@
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
-    </row>
-    <row r="31" spans="2:29">
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="5"/>
+      <c r="AS30" s="5"/>
+    </row>
+    <row r="31" spans="2:45">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="5"/>
+      <c r="I31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="34"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -1774,18 +2324,34 @@
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
-    </row>
-    <row r="32" spans="2:29">
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="5"/>
+      <c r="AS31" s="5"/>
+    </row>
+    <row r="32" spans="2:45">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="5"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="34"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -1804,39 +2370,54 @@
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="B9:M10">
-    <filterColumn colId="8" showButton="0"/>
-    <filterColumn colId="10" showButton="0"/>
-  </autoFilter>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="P9:AC9"/>
     <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="N9:AC10"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:I10"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:M7"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B7:I8"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="B7:K8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" showErrorMessage="1" sqref="H12:H32">
+    <dataValidation type="list" showErrorMessage="1" sqref="I12:J32">
       <formula1>"TuyenTV1,NamMH,QuyetND2,DongDL1,DuongTD2,TuanNT22,XuanDT2"</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" sqref="I12:I32">
-      <formula1>"○,℗,©,∆"</formula1>
+    <dataValidation type="list" showErrorMessage="1" sqref="K12:K32">
+      <formula1>"◇,△,○,★"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="33" orientation="portrait" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="14" max="47" man="1"/>
-    <brk id="30" max="47" man="1"/>
+    <brk id="15" max="34" man="1"/>
+    <brk id="46" max="47" man="1"/>
   </colBreaks>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
